--- a/KaroGame/Documentation/log_job.xlsx
+++ b/KaroGame/Documentation/log_job.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t>Move generation + new evaluation</t>
+  </si>
+  <si>
+    <t>New Minimax</t>
+  </si>
+  <si>
+    <t>New AlphaBeta</t>
+  </si>
+  <si>
+    <t>New TranspositionTable</t>
+  </si>
+  <si>
+    <t>Design and Realisation</t>
+  </si>
+  <si>
+    <t>Design and implementation of the XNA GUI classes</t>
+  </si>
+  <si>
+    <t>BoardManager, Piece, Tile, BoardElement</t>
+  </si>
+  <si>
+    <t>Human vs AI implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human vs AI implementation </t>
+  </si>
+  <si>
+    <t>Tracing strange tile moves</t>
+  </si>
+  <si>
+    <t>Tracing strange tile moves &amp; Engine Bugs</t>
+  </si>
+  <si>
+    <t>Engine Bugs</t>
+  </si>
+  <si>
+    <t>Engine Bugs + Winning Animation</t>
   </si>
 </sst>
 </file>
@@ -411,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,123 +639,253 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>40316</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>40318</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>40321</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>40325</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>40329</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>40330</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>40332</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>40336</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>40337</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>40338</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>40339</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>40342</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>40343</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="D30" s="4">
         <f>SUM(D2:D29)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6">
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="4:4">
